--- a/data/trans_dic/P36$pan-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.715885931572822</v>
+        <v>0.7185570720235906</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7999600456801412</v>
+        <v>0.7948464778518659</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7762955028714377</v>
+        <v>0.7755116117330694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7769565627265239</v>
+        <v>0.7758814427814833</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7986503630789593</v>
+        <v>0.7992076980929208</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8222284137240964</v>
+        <v>0.8267996732232107</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7559787288244473</v>
+        <v>0.7569321773466098</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8077911486364217</v>
+        <v>0.804740422881831</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8086222979278714</v>
+        <v>0.8072949905958847</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7838589022740883</v>
+        <v>0.7843201555944597</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8539645053636292</v>
+        <v>0.8522657516793597</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8371024175088448</v>
+        <v>0.837882038263364</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8360982103871153</v>
+        <v>0.8368080350916193</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8559565524134062</v>
+        <v>0.856822103689649</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8792722043197847</v>
+        <v>0.8785193064168336</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8013793314186559</v>
+        <v>0.8010821445801953</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8491044379065953</v>
+        <v>0.8466439311297476</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8511762089280299</v>
+        <v>0.8488780824048562</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7876214499337986</v>
+        <v>0.7854732416033943</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.769658132172242</v>
+        <v>0.7735674409125456</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8245906070024341</v>
+        <v>0.825393907960093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7619099677371705</v>
+        <v>0.7596244727636819</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8366901907798062</v>
+        <v>0.8381816086393494</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8336841596767888</v>
+        <v>0.834871924404439</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7831547072049819</v>
+        <v>0.7826684518917002</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8139756776604153</v>
+        <v>0.8111548868857047</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8374796921419495</v>
+        <v>0.8379721604852348</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8407416228006633</v>
+        <v>0.8361663411019756</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8259934679250217</v>
+        <v>0.824067863534477</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8695948630034018</v>
+        <v>0.8682552453118493</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8132899092917393</v>
+        <v>0.8115551980507344</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8826937745213319</v>
+        <v>0.8814491586592298</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8770230281015647</v>
+        <v>0.8780597133961927</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.81764818458175</v>
+        <v>0.8204165862106657</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8476873338675244</v>
+        <v>0.8470840580470372</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8694707117959498</v>
+        <v>0.8693128305747571</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7076642831564421</v>
+        <v>0.7105027142336384</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7569050014933992</v>
+        <v>0.7561834125230478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8277874872107582</v>
+        <v>0.8300466749343544</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7208158122169835</v>
+        <v>0.7232007149684736</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7772771780595237</v>
+        <v>0.7771706777558468</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8726491787684106</v>
+        <v>0.8745917946620122</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.72739065643815</v>
+        <v>0.723731216468663</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7773800638701602</v>
+        <v>0.7761963867540382</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8591150106568142</v>
+        <v>0.860450820855477</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7786172519131888</v>
+        <v>0.7784968002609739</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8194353892536241</v>
+        <v>0.8194364444856342</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.879923822135261</v>
+        <v>0.8825248873131409</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7874127515598702</v>
+        <v>0.7893740039068412</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8349541853302299</v>
+        <v>0.8351356164031312</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9179648314485148</v>
+        <v>0.9189334352160271</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7751454512359764</v>
+        <v>0.7712071460961705</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8198594727194063</v>
+        <v>0.8209117630247884</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8939863228459256</v>
+        <v>0.8934845229952845</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7093540294850783</v>
+        <v>0.7080777810253964</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7665833269446289</v>
+        <v>0.7646096434762027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8306559218692388</v>
+        <v>0.8306021681453151</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7477069048934852</v>
+        <v>0.7453512261704551</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7872747705398381</v>
+        <v>0.7883574277439653</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8766925246606813</v>
+        <v>0.8736166960944926</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7390344975138832</v>
+        <v>0.7371457829247375</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7857908407062348</v>
+        <v>0.7845085134797911</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.861880863448733</v>
+        <v>0.8618668867394284</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.766998879085624</v>
+        <v>0.7650968775967866</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8186626783950477</v>
+        <v>0.8186471435736571</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8770196404819095</v>
+        <v>0.8793654846228028</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8003491929645337</v>
+        <v>0.7989413616463041</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8363401844528808</v>
+        <v>0.8371806157737112</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9139570966177006</v>
+        <v>0.914852297079878</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7771631955228145</v>
+        <v>0.7739686862304554</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8220667020104785</v>
+        <v>0.8213230794307846</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8920469209371454</v>
+        <v>0.8908542316086653</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7487376326431997</v>
+        <v>0.7496460589564471</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.78680089932798</v>
+        <v>0.787772744036492</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8312194146000388</v>
+        <v>0.8308201635038298</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7669750086266356</v>
+        <v>0.7672109573682828</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8173177996480228</v>
+        <v>0.8158052279970085</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8646320072350758</v>
+        <v>0.8663823838687768</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7630220550640877</v>
+        <v>0.7626273904366732</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8049634536784916</v>
+        <v>0.8053918404266135</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8522218738579915</v>
+        <v>0.8521557232938826</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7793740457275549</v>
+        <v>0.77931317522743</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.816257104749986</v>
+        <v>0.8157739306433303</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8563953886096285</v>
+        <v>0.8565851958598665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7949332181658507</v>
+        <v>0.795292612052128</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.842490315123731</v>
+        <v>0.8425871920255886</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8873041381516282</v>
+        <v>0.8879543529847159</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7836579363485385</v>
+        <v>0.7825570824425695</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8245257559547537</v>
+        <v>0.824907642659456</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.870209956740843</v>
+        <v>0.8696541999232981</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>496130</v>
+        <v>497981</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>561147</v>
+        <v>557560</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>522459</v>
+        <v>521931</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>534819</v>
+        <v>534079</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>555949</v>
+        <v>556337</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>552246</v>
+        <v>555316</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1044294</v>
+        <v>1045611</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1128953</v>
+        <v>1124689</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1087323</v>
+        <v>1085538</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>543237</v>
+        <v>543557</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>599030</v>
+        <v>597838</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>563382</v>
+        <v>563907</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>575529</v>
+        <v>576018</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>595841</v>
+        <v>596443</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>590559</v>
+        <v>590053</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1107009</v>
+        <v>1106599</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1186691</v>
+        <v>1183253</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1144543</v>
+        <v>1141453</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>755223</v>
+        <v>753163</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>783471</v>
+        <v>787451</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>842178</v>
+        <v>842999</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>737067</v>
+        <v>734856</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>861892</v>
+        <v>863428</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>868671</v>
+        <v>869909</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1508559</v>
+        <v>1507622</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1667078</v>
+        <v>1661300</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1727968</v>
+        <v>1728984</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>806158</v>
+        <v>801771</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>840818</v>
+        <v>838857</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>888142</v>
+        <v>886774</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>786772</v>
+        <v>785094</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>909281</v>
+        <v>907999</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>913829</v>
+        <v>914909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1575002</v>
+        <v>1580335</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1736121</v>
+        <v>1734886</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1793975</v>
+        <v>1793649</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>479420</v>
+        <v>481343</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>571914</v>
+        <v>571368</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>627851</v>
+        <v>629565</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>492923</v>
+        <v>494554</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>603304</v>
+        <v>603221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>685039</v>
+        <v>686564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>990204</v>
+        <v>985223</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1190769</v>
+        <v>1188956</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1326027</v>
+        <v>1328089</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>527488</v>
+        <v>527407</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>619161</v>
+        <v>619162</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>667395</v>
+        <v>669368</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>538465</v>
+        <v>539806</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>648071</v>
+        <v>648212</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>720612</v>
+        <v>721373</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1055213</v>
+        <v>1049852</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1255838</v>
+        <v>1257450</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1379850</v>
+        <v>1379075</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>667114</v>
+        <v>665914</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>725084</v>
+        <v>723218</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>778796</v>
+        <v>778745</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>774316</v>
+        <v>771877</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>826463</v>
+        <v>827599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>914098</v>
+        <v>910891</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1460362</v>
+        <v>1456630</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1568157</v>
+        <v>1565598</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1706726</v>
+        <v>1706698</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>721326</v>
+        <v>719538</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>774344</v>
+        <v>774330</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>822265</v>
+        <v>824464</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>828832</v>
+        <v>827374</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>877971</v>
+        <v>878853</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>952953</v>
+        <v>953886</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1535706</v>
+        <v>1529394</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1640551</v>
+        <v>1639067</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1766462</v>
+        <v>1764100</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2448234</v>
+        <v>2451205</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2691549</v>
+        <v>2694874</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2818150</v>
+        <v>2816796</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2588674</v>
+        <v>2589470</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2903264</v>
+        <v>2897891</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3061913</v>
+        <v>3068111</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5070274</v>
+        <v>5067651</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5613060</v>
+        <v>5616047</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5907321</v>
+        <v>5906862</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2548410</v>
+        <v>2548211</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2792315</v>
+        <v>2790662</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2903506</v>
+        <v>2904149</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2683038</v>
+        <v>2684251</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2992681</v>
+        <v>2993026</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3142201</v>
+        <v>3144504</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5207399</v>
+        <v>5200084</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5749469</v>
+        <v>5752132</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6032008</v>
+        <v>6028156</v>
       </c>
     </row>
     <row r="24">
